--- a/ITEX_survey_map/ITEX research site survey 2019 (Responses).xlsx
+++ b/ITEX_survey_map/ITEX research site survey 2019 (Responses).xlsx
@@ -336,7 +336,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="658">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1088,9 +1088,6 @@
     <t>https://docs.google.com/forms/d/e/1FAIpQLSfWDgn0xER9Ug_cxeW0cLSQUFYDJO8yCV4HbcjLZCDXVewzcA/viewform?edit2=2_ABaOnuffbCBJ2WAzzAp6FIWJRnUI-awbfHDqhlVMWA46OCTov4q04zdRh3EkjDRV5XjIwic</t>
   </si>
   <si>
-    <t>cassandra.elphinstone@shaw.ca</t>
-  </si>
-  <si>
     <t>Ned Fetcher, Jianwu (Jim) Tang, Michael Moody</t>
   </si>
   <si>
@@ -1118,6 +1115,9 @@
     <t>https://docs.google.com/forms/d/e/1FAIpQLSfWDgn0xER9Ug_cxeW0cLSQUFYDJO8yCV4HbcjLZCDXVewzcA/viewform?edit2=2_ABaOnueFW0CsaulfJGnwv-rxVcw-4VDhSTC7smX44fG05Myy6q0SH90EYfW32Qa-3KzWzSg</t>
   </si>
   <si>
+    <t>nicoletta.cannone@uninsubria.it</t>
+  </si>
+  <si>
     <t>Nicoletta Cannone</t>
   </si>
   <si>
@@ -1142,6 +1142,9 @@
     <t>https://docs.google.com/forms/d/e/1FAIpQLSfWDgn0xER9Ug_cxeW0cLSQUFYDJO8yCV4HbcjLZCDXVewzcA/viewform?edit2=2_ABaOnufJkqfFtyXOIj3cKzQgdvnEFHVKQ17K172rt8YpSIgy2pkUnGN3GPHv9mTCgCqWF4Q</t>
   </si>
   <si>
+    <t>michele.carbognani@unipr.it</t>
+  </si>
+  <si>
     <t>Michele Carbognani</t>
   </si>
   <si>
@@ -1157,6 +1160,9 @@
     <t>https://docs.google.com/forms/d/e/1FAIpQLSfWDgn0xER9Ug_cxeW0cLSQUFYDJO8yCV4HbcjLZCDXVewzcA/viewform?edit2=2_ABaOnueNWtdz4QLsnD-lEsg2wWQSiP84JiD5IX9zEz6_w5Wb4bifByDXBNyGPOgeNBe3aIE</t>
   </si>
   <si>
+    <t>andersm@bio.ku.dk</t>
+  </si>
+  <si>
     <t>University of Copenhagen</t>
   </si>
   <si>
@@ -1187,6 +1193,9 @@
     <t>https://docs.google.com/forms/d/e/1FAIpQLSfWDgn0xER9Ug_cxeW0cLSQUFYDJO8yCV4HbcjLZCDXVewzcA/viewform?edit2=2_ABaOnufqfWGGnC0JgRhvdk1NHculMfjrVWuoD3J7In039MZEJ7jpgCm2IRY66gHRRpeqonk</t>
   </si>
   <si>
+    <t>alessandro.petraglia@unipr.it</t>
+  </si>
+  <si>
     <t>Alessandro Petraglia</t>
   </si>
   <si>
@@ -1199,6 +1208,9 @@
     <t>https://docs.google.com/forms/d/e/1FAIpQLSfWDgn0xER9Ug_cxeW0cLSQUFYDJO8yCV4HbcjLZCDXVewzcA/viewform?edit2=2_ABaOnueUsZamS3c6M9lPl-7ODUwDviOpWLtpWQe_h9u0JuhkvhcRTgWsIRhOQSh7Qv5Y1Pc</t>
   </si>
   <si>
+    <t>anne.tolvanen@luke.fi</t>
+  </si>
+  <si>
     <t>Anne Tolvanen</t>
   </si>
   <si>
@@ -1229,6 +1241,9 @@
     <t>https://docs.google.com/forms/d/e/1FAIpQLSfWDgn0xER9Ug_cxeW0cLSQUFYDJO8yCV4HbcjLZCDXVewzcA/viewform?edit2=2_ABaOnucIN6PRiSPV1BIvML00rqvenhTeBLrVN4pv8_giEQl_SjITmGX_XHyGQ8UBFPzjY94</t>
   </si>
   <si>
+    <t>annika.hofgaard@nina.no</t>
+  </si>
+  <si>
     <t>Annika Hofgaard</t>
   </si>
   <si>
@@ -1244,6 +1259,9 @@
     <t>https://docs.google.com/forms/d/e/1FAIpQLSfWDgn0xER9Ug_cxeW0cLSQUFYDJO8yCV4HbcjLZCDXVewzcA/viewform?edit2=2_ABaOnuegA8zRiKAFdtG4ymfKrIJ7Es68FNWaJkahImP_ImZnBevRBnbcTFGe3CuoakQ5Cv4</t>
   </si>
   <si>
+    <t>rixen@slf.ch</t>
+  </si>
+  <si>
     <t>WSL Institute for Snow and Avalanche Research SLF</t>
   </si>
   <si>
@@ -1538,6 +1556,9 @@
     <t>https://docs.google.com/forms/d/e/1FAIpQLSfWDgn0xER9Ug_cxeW0cLSQUFYDJO8yCV4HbcjLZCDXVewzcA/viewform?edit2=2_ABaOnucH7wkxBQKyPcxLIWfOjft95EYWOzG2MCeM6SdwZmGDlHScv8nD_SCrfilR5mBHxHk</t>
   </si>
   <si>
+    <t>ellen.dorrepaal@umu.se</t>
+  </si>
+  <si>
     <t>Ellen Dorrepaal</t>
   </si>
   <si>
@@ -1562,6 +1583,9 @@
     <t>https://docs.google.com/forms/d/e/1FAIpQLSfWDgn0xER9Ug_cxeW0cLSQUFYDJO8yCV4HbcjLZCDXVewzcA/viewform?edit2=2_ABaOnudiG55VS6r5Yfto_nIxgfdqjBQDmvFjFRjPtYuUzNRrcgno0-wSERY-e_s6FcUQbDw</t>
   </si>
   <si>
+    <t>isj@hi.is</t>
+  </si>
+  <si>
     <t>Ingibjorg Jonsdottir</t>
   </si>
   <si>
@@ -1577,9 +1601,6 @@
     <t>https://docs.google.com/forms/d/e/1FAIpQLSfWDgn0xER9Ug_cxeW0cLSQUFYDJO8yCV4HbcjLZCDXVewzcA/viewform?edit2=2_ABaOnufAumUkrYRJBdi2Z6Q8igmdeEivTJoIs6x5LyYXd-5o5-7uS4286YReE6msGvokNIU</t>
   </si>
   <si>
-    <t>petr.macek@hbu.cas.cz</t>
-  </si>
-  <si>
     <t>Billefjorden</t>
   </si>
   <si>
@@ -1616,6 +1637,9 @@
     <t>https://docs.google.com/forms/d/e/1FAIpQLSfWDgn0xER9Ug_cxeW0cLSQUFYDJO8yCV4HbcjLZCDXVewzcA/viewform?edit2=2_ABaOnuc63-ELvXxOM3OxGW1xXjoeTmz7YnIWbOn9AuyEc6_Rj_Xgep6ZdBCFzYmIYCZv-j4</t>
   </si>
   <si>
+    <t>oberbaue@fiu.edu</t>
+  </si>
+  <si>
     <t>Jeremy May and Steven Oberbauer</t>
   </si>
   <si>
@@ -1691,6 +1715,9 @@
     <t>https://docs.google.com/forms/d/e/1FAIpQLSfWDgn0xER9Ug_cxeW0cLSQUFYDJO8yCV4HbcjLZCDXVewzcA/viewform?edit2=2_ABaOnueZVOuFAHIqhhKsCiQRaCvfJaFgtOxUZF6JQtFwwIr0JYfM0N6Uobd-o3VBSVUdwqQ</t>
   </si>
   <si>
+    <t>ckopp@biodiversity.ubc.ca</t>
+  </si>
+  <si>
     <t>Christopher Kopp</t>
   </si>
   <si>
@@ -1748,6 +1775,9 @@
     <t>Yes, in some years</t>
   </si>
   <si>
+    <t>jprevey@usgs.gov</t>
+  </si>
+  <si>
     <t>Janet Prevey</t>
   </si>
   <si>
@@ -1760,6 +1790,9 @@
     <t>https://docs.google.com/forms/d/e/1FAIpQLSfWDgn0xER9Ug_cxeW0cLSQUFYDJO8yCV4HbcjLZCDXVewzcA/viewform?edit2=2_ABaOnufFLEbk-JaLnhNP9lEeJPt6Oah7KL1rPxaCCxg2eCAoWv9e5d-wCnByneg4iEWerKU</t>
   </si>
   <si>
+    <t>isla.myers-smith@ubc.ca</t>
+  </si>
+  <si>
     <t>Isla Myers-Smith</t>
   </si>
   <si>
@@ -1781,6 +1814,9 @@
     <t>https://docs.google.com/forms/d/e/1FAIpQLSfWDgn0xER9Ug_cxeW0cLSQUFYDJO8yCV4HbcjLZCDXVewzcA/viewform?edit2=2_ABaOnucSO25ctc3ckvU6dkTJZ8inN3zGQh0y4ePQVwdqABrmZFtD5QEuoXGJjgrsQEf_jTQ</t>
   </si>
   <si>
+    <t>sarah.elmendorf@colorado.edu</t>
+  </si>
+  <si>
     <t>Sarah Elmendorf</t>
   </si>
   <si>
@@ -1808,6 +1844,9 @@
     <t>https://docs.google.com/forms/d/e/1FAIpQLSfWDgn0xER9Ug_cxeW0cLSQUFYDJO8yCV4HbcjLZCDXVewzcA/viewform?edit2=2_ABaOnucbzbO_Nvb9saxBKEmjtBJx7nJGX5clpLNByGd8DtpTYXD3xLuUOmBS7mF0lqTbDBY</t>
   </si>
   <si>
+    <t>robert.bjork@gu.se</t>
+  </si>
+  <si>
     <t>Robert Bjork and Mats Bjorkman</t>
   </si>
   <si>
@@ -1866,6 +1905,9 @@
   </si>
   <si>
     <t>https://docs.google.com/forms/d/e/1FAIpQLSfWDgn0xER9Ug_cxeW0cLSQUFYDJO8yCV4HbcjLZCDXVewzcA/viewform?edit2=2_ABaOnudLY91mOPbNEj2-4preKQQ6VbOTxX414Z_r27Jsc8OwoXUEs6TyWr4HelshSHypboU</t>
+  </si>
+  <si>
+    <t>post@ucdavis.edu</t>
   </si>
   <si>
     <t>Eric Post</t>
@@ -2072,9 +2114,6 @@
     <t>Salix, Festuca, Gentiana, Trifolium</t>
   </si>
   <si>
-    <t>ellen.dorrepaal@umu.se</t>
-  </si>
-  <si>
     <t>Umeå University</t>
   </si>
   <si>
@@ -2173,7 +2212,7 @@
 </t>
   </si>
   <si>
-    <t/>
+    <t>cnsc@churchillscience.ca</t>
   </si>
   <si>
     <t xml:space="preserve">Lara Grevstad/ LeeAnn Fishback </t>
@@ -2227,6 +2266,9 @@
     <t>Please contact research@churchillscience.ca and researchtech@churchillscience.ca with any questions or clarifications for our ITEX database registration</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Jake Alexander, Evelin Iseli</t>
   </si>
   <si>
@@ -2261,6 +2303,39 @@
   </si>
   <si>
     <t>Dryas, Salix, Rhododendron, Carex, Festuca, Poa, Saxifraga, Silene, Cerastium, Stellaria, Draba, Cardamine, Bryophytes, Lichen, Astragalus, Veronica</t>
+  </si>
+  <si>
+    <t>cjlittle@sfu.ca</t>
+  </si>
+  <si>
+    <t>Chelsea Little, Courtney Collins</t>
+  </si>
+  <si>
+    <t>Simon Fraser University and University of British Columbia</t>
+  </si>
+  <si>
+    <t>Nch'kay - Garibaldi Alpine Research</t>
+  </si>
+  <si>
+    <t>https://garibaldialpine.wixsite.com/garibaldialpine</t>
+  </si>
+  <si>
+    <t>Cassandra Elphinstone 2022-24, Courtney Collins 2022-present, Nathalie Chardon 2022-23</t>
+  </si>
+  <si>
+    <t>Garibaldi Lake OTCs</t>
+  </si>
+  <si>
+    <t>Air temperature (near ground, ~10cm), Soil temperature, Soil moisture probe</t>
+  </si>
+  <si>
+    <t>Plot level phenology, Point framing, Above ground plant traits, Flower counts (total), Plot photos, Phenocams (GoPros etc.), Below ground microbe surveys, Litter bags</t>
+  </si>
+  <si>
+    <t>Fine-scale geospatial data (GPS points for each plot), Drone images, Phenocams of site (GoPros etc.), Dark diversity (species richness)</t>
+  </si>
+  <si>
+    <t>Salix, Cassiope, Carex, Juncus, Equisetum</t>
   </si>
 </sst>
 </file>
@@ -2270,7 +2345,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2285,6 +2360,16 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Aptos Narrow&quot;"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2301,7 +2386,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2313,6 +2398,12 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -2534,7 +2625,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="18.88"/>
+    <col customWidth="1" min="1" max="1" width="18.88"/>
+    <col customWidth="1" min="2" max="2" width="25.13"/>
+    <col customWidth="1" min="3" max="3" width="34.38"/>
+    <col customWidth="1" min="4" max="6" width="18.88"/>
     <col customWidth="1" min="7" max="8" width="24.75"/>
     <col customWidth="1" min="9" max="9" width="21.25"/>
     <col customWidth="1" min="10" max="226" width="18.88"/>
@@ -4595,17 +4689,17 @@
       <c r="A14" s="3">
         <v>43794.88119375</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="F14" s="2">
         <v>2011.0</v>
@@ -4617,7 +4711,7 @@
         <v>87</v>
       </c>
       <c r="AN14" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AO14" s="2" t="s">
         <v>61</v>
@@ -4641,7 +4735,7 @@
         <v>101</v>
       </c>
       <c r="BC14" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BD14" s="2" t="s">
         <v>61</v>
@@ -4650,7 +4744,7 @@
         <v>70</v>
       </c>
       <c r="BO14" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BP14" s="2" t="s">
         <v>61</v>
@@ -4674,7 +4768,7 @@
         <v>101</v>
       </c>
       <c r="CD14" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="CE14" s="2" t="s">
         <v>61</v>
@@ -4683,7 +4777,7 @@
         <v>70</v>
       </c>
       <c r="CP14" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="CQ14" s="2" t="s">
         <v>65</v>
@@ -4707,21 +4801,21 @@
         <v>89</v>
       </c>
       <c r="DE14" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="DF14" s="2" t="s">
         <v>65</v>
       </c>
       <c r="HR14" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3">
         <v>43801.741627152776</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>248</v>
+      <c r="B15" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>258</v>
@@ -4803,17 +4897,17 @@
       <c r="A16" s="3">
         <v>43805.6588697338</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>248</v>
+      <c r="B16" s="5" t="s">
+        <v>266</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F16" s="2">
         <v>2008.0</v>
@@ -4825,7 +4919,7 @@
         <v>62</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>61</v>
@@ -4846,7 +4940,7 @@
         <v>101</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AD16" s="2" t="s">
         <v>70</v>
@@ -4855,24 +4949,24 @@
         <v>2008.0</v>
       </c>
       <c r="HR16" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3">
         <v>43805.68199135417</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>248</v>
+      <c r="B17" s="5" t="s">
+        <v>272</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>225</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F17" s="2">
         <v>1989.0</v>
@@ -4881,7 +4975,7 @@
         <v>87</v>
       </c>
       <c r="AN17" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AO17" s="2" t="s">
         <v>61</v>
@@ -4902,7 +4996,7 @@
         <v>2009.0</v>
       </c>
       <c r="BC17" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="BD17" s="2" t="s">
         <v>61</v>
@@ -4914,7 +5008,7 @@
         <v>2009.0</v>
       </c>
       <c r="BO17" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="BP17" s="2" t="s">
         <v>61</v>
@@ -4935,7 +5029,7 @@
         <v>1999.0</v>
       </c>
       <c r="CD17" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="CE17" s="2" t="s">
         <v>61</v>
@@ -4947,7 +5041,7 @@
         <v>1999.0</v>
       </c>
       <c r="CP17" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="CQ17" s="2" t="s">
         <v>61</v>
@@ -4968,7 +5062,7 @@
         <v>1989.0</v>
       </c>
       <c r="DE17" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="DF17" s="2" t="s">
         <v>61</v>
@@ -4980,7 +5074,7 @@
         <v>1989.0</v>
       </c>
       <c r="DQ17" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="DR17" s="2" t="s">
         <v>61</v>
@@ -5001,7 +5095,7 @@
         <v>2012.0</v>
       </c>
       <c r="EF17" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="EG17" s="2" t="s">
         <v>65</v>
@@ -5013,24 +5107,24 @@
         <v>2012.0</v>
       </c>
       <c r="HR17" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3">
         <v>43805.6913428125</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>248</v>
+      <c r="B18" s="5" t="s">
+        <v>283</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F18" s="2">
         <v>2012.0</v>
@@ -5042,7 +5136,7 @@
         <v>62</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>61</v>
@@ -5063,7 +5157,7 @@
         <v>101</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AD18" s="2" t="s">
         <v>70</v>
@@ -5072,24 +5166,24 @@
         <v>2012.0</v>
       </c>
       <c r="HR18" s="4" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3">
         <v>43805.70035121527</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>248</v>
+      <c r="B19" s="5" t="s">
+        <v>288</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F19" s="2">
         <v>1994.0</v>
@@ -5101,7 +5195,7 @@
         <v>62</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>61</v>
@@ -5122,7 +5216,7 @@
         <v>101</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AD19" s="2" t="s">
         <v>70</v>
@@ -5131,24 +5225,21 @@
         <v>1994.0</v>
       </c>
       <c r="HR19" s="4" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3">
         <v>43805.71061778935</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>248</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F20" s="2">
         <v>2014.0</v>
@@ -5157,7 +5248,7 @@
         <v>62</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>65</v>
@@ -5175,27 +5266,27 @@
         <v>20.8033</v>
       </c>
       <c r="AC20" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="HR20" s="4" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3">
         <v>43805.717280937504</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>248</v>
+      <c r="B21" s="5" t="s">
+        <v>299</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F21" s="2">
         <v>1998.0</v>
@@ -5204,7 +5295,7 @@
         <v>62</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>61</v>
@@ -5222,7 +5313,7 @@
         <v>9.616667</v>
       </c>
       <c r="AC21" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="AD21" s="2" t="s">
         <v>70</v>
@@ -5231,24 +5322,24 @@
         <v>1998.0</v>
       </c>
       <c r="HR21" s="4" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3">
         <v>43805.73757677083</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>248</v>
+      <c r="B22" s="5" t="s">
+        <v>305</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="F22" s="2">
         <v>1994.0</v>
@@ -5260,7 +5351,7 @@
         <v>62</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>61</v>
@@ -5278,10 +5369,10 @@
         <v>9.58</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AC22" s="2" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="AD22" s="2" t="s">
         <v>70</v>
@@ -5290,24 +5381,24 @@
         <v>1994.0</v>
       </c>
       <c r="HR22" s="4" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3">
         <v>43805.739709270834</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>248</v>
+      <c r="B23" s="5" t="s">
+        <v>272</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>225</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="F23" s="2">
         <v>2004.0</v>
@@ -5316,7 +5407,7 @@
         <v>62</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>61</v>
@@ -5334,7 +5425,7 @@
         <v>-20.52895</v>
       </c>
       <c r="AC23" s="2" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="AD23" s="2" t="s">
         <v>70</v>
@@ -5343,7 +5434,7 @@
         <v>2004.0</v>
       </c>
       <c r="HR23" s="4" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24">
@@ -5351,16 +5442,16 @@
         <v>43816.943996875</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="F24" s="2">
         <v>2009.0</v>
@@ -5369,7 +5460,7 @@
         <v>2009.0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>61</v>
@@ -5378,7 +5469,7 @@
         <v>87</v>
       </c>
       <c r="AN24" s="2" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="AO24" s="2" t="s">
         <v>61</v>
@@ -5393,7 +5484,7 @@
         <v>65</v>
       </c>
       <c r="AW24" s="2" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="AX24" s="2" t="s">
         <v>193</v>
@@ -5402,13 +5493,13 @@
         <v>67</v>
       </c>
       <c r="AZ24" s="2" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="BB24" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BC24" s="2" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="BD24" s="2" t="s">
         <v>61</v>
@@ -5423,7 +5514,7 @@
         <v>70</v>
       </c>
       <c r="BO24" s="2" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="BP24" s="2" t="s">
         <v>61</v>
@@ -5441,7 +5532,7 @@
         <v>65</v>
       </c>
       <c r="BX24" s="2" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="BY24" s="2" t="s">
         <v>193</v>
@@ -5450,13 +5541,13 @@
         <v>67</v>
       </c>
       <c r="CA24" s="2" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="CC24" s="2" t="s">
         <v>92</v>
       </c>
       <c r="CD24" s="2" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="CE24" s="2" t="s">
         <v>65</v>
@@ -5468,7 +5559,7 @@
         <v>2009.0</v>
       </c>
       <c r="HR24" s="4" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25">
@@ -5476,16 +5567,16 @@
         <v>43881.51649386574</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="F25" s="2">
         <v>1994.0</v>
@@ -5494,10 +5585,10 @@
         <v>2000.0</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>61</v>
@@ -5506,7 +5597,7 @@
         <v>87</v>
       </c>
       <c r="AN25" s="2" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="AO25" s="2" t="s">
         <v>61</v>
@@ -5533,40 +5624,40 @@
         <v>227</v>
       </c>
       <c r="AW25" s="2" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AX25" s="2" t="s">
         <v>65</v>
       </c>
       <c r="AY25" s="2" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="AZ25" s="2" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="BA25" s="2" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="BB25" s="2" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="BC25" s="2" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="BD25" s="2" t="s">
         <v>61</v>
       </c>
       <c r="BE25" s="2" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="BF25" s="2">
         <v>2000.0</v>
       </c>
       <c r="BN25" s="2" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="BO25" s="2" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="BP25" s="2" t="s">
         <v>61</v>
@@ -5584,7 +5675,7 @@
         <v>227</v>
       </c>
       <c r="BX25" s="2" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="BY25" s="2" t="s">
         <v>65</v>
@@ -5593,19 +5684,19 @@
         <v>67</v>
       </c>
       <c r="CA25" s="2" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="CC25" s="2" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="CD25" s="2" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="CE25" s="2" t="s">
         <v>61</v>
       </c>
       <c r="CF25" s="2" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="CG25" s="2">
         <v>2000.0</v>
@@ -5620,10 +5711,10 @@
         <v>2003.0</v>
       </c>
       <c r="CO25" s="2" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="CP25" s="2" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="CQ25" s="2" t="s">
         <v>61</v>
@@ -5650,7 +5741,7 @@
         <v>227</v>
       </c>
       <c r="CY25" s="2" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="CZ25" s="2" t="s">
         <v>65</v>
@@ -5659,19 +5750,19 @@
         <v>67</v>
       </c>
       <c r="DB25" s="2" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="DD25" s="2" t="s">
         <v>92</v>
       </c>
       <c r="DE25" s="2" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="DF25" s="2" t="s">
         <v>65</v>
       </c>
       <c r="DG25" s="2" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="DH25" s="2">
         <v>2000.0</v>
@@ -5683,10 +5774,10 @@
         <v>2000.0</v>
       </c>
       <c r="DP25" s="2" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="HR25" s="4" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26">
@@ -5694,16 +5785,16 @@
         <v>43881.69851806713</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="F26" s="2">
         <v>1992.0</v>
@@ -5718,7 +5809,7 @@
         <v>87</v>
       </c>
       <c r="AN26" s="2" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="AO26" s="2" t="s">
         <v>61</v>
@@ -5745,31 +5836,31 @@
         <v>90</v>
       </c>
       <c r="AW26" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="AX26" s="2" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="AY26" s="2" t="s">
         <v>67</v>
       </c>
       <c r="AZ26" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="BA26" s="2" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="BB26" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BC26" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="BD26" s="2" t="s">
         <v>61</v>
       </c>
       <c r="BE26" s="2" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="BF26" s="2">
         <v>1992.0</v>
@@ -5781,10 +5872,10 @@
         <v>1995.0</v>
       </c>
       <c r="BN26" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="BO26" s="2" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="BP26" s="2" t="s">
         <v>61</v>
@@ -5811,19 +5902,19 @@
         <v>65</v>
       </c>
       <c r="BY26" s="2" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="BZ26" s="2" t="s">
         <v>67</v>
       </c>
       <c r="CA26" s="2" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="CC26" s="2" t="s">
         <v>92</v>
       </c>
       <c r="CD26" s="2" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="CE26" s="2" t="s">
         <v>61</v>
@@ -5838,7 +5929,7 @@
         <v>1995.0</v>
       </c>
       <c r="CP26" s="2" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="CQ26" s="2" t="s">
         <v>61</v>
@@ -5862,25 +5953,25 @@
         <v>116</v>
       </c>
       <c r="CY26" s="2" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="CZ26" s="2" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="DA26" s="2" t="s">
         <v>67</v>
       </c>
       <c r="DB26" s="2" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="DC26" s="2" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="DD26" s="2" t="s">
         <v>92</v>
       </c>
       <c r="DE26" s="2" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="DF26" s="2" t="s">
         <v>61</v>
@@ -5892,7 +5983,7 @@
         <v>1992.0</v>
       </c>
       <c r="DQ26" s="2" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="DR26" s="2" t="s">
         <v>61</v>
@@ -5910,25 +6001,25 @@
         <v>116</v>
       </c>
       <c r="DZ26" s="2" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="EA26" s="2" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="EB26" s="2" t="s">
         <v>67</v>
       </c>
       <c r="EC26" s="2" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="ED26" s="2" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="EE26" s="2" t="s">
         <v>92</v>
       </c>
       <c r="EF26" s="2" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="EG26" s="2" t="s">
         <v>61</v>
@@ -5937,7 +6028,7 @@
         <v>70</v>
       </c>
       <c r="ER26" s="2" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="ES26" s="2" t="s">
         <v>61</v>
@@ -5961,22 +6052,22 @@
         <v>65</v>
       </c>
       <c r="FB26" s="2" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="FC26" s="2" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="FD26" s="2" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="FE26" s="2" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="FF26" s="2" t="s">
         <v>92</v>
       </c>
       <c r="FG26" s="2" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="FH26" s="2" t="s">
         <v>61</v>
@@ -5985,7 +6076,7 @@
         <v>70</v>
       </c>
       <c r="FS26" s="2" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="FT26" s="2" t="s">
         <v>61</v>
@@ -6006,48 +6097,48 @@
         <v>116</v>
       </c>
       <c r="GB26" s="2" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="GC26" s="2" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="GD26" s="2" t="s">
         <v>67</v>
       </c>
       <c r="GE26" s="2" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="GF26" s="2" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="GG26" s="2" t="s">
         <v>92</v>
       </c>
       <c r="GH26" s="2" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="GI26" s="2" t="s">
         <v>70</v>
       </c>
       <c r="HR26" s="4" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3">
         <v>43881.53138849537</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>248</v>
+      <c r="B27" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>258</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="F27" s="2">
         <v>2014.0</v>
@@ -6059,7 +6150,7 @@
         <v>87</v>
       </c>
       <c r="AN27" s="2" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="AO27" s="2" t="s">
         <v>61</v>
@@ -6092,7 +6183,7 @@
         <v>70</v>
       </c>
       <c r="BO27" s="2" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="BP27" s="2" t="s">
         <v>61</v>
@@ -6125,7 +6216,7 @@
         <v>70</v>
       </c>
       <c r="CP27" s="2" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="CQ27" s="2" t="s">
         <v>61</v>
@@ -6158,7 +6249,7 @@
         <v>70</v>
       </c>
       <c r="DQ27" s="2" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="DR27" s="2" t="s">
         <v>61</v>
@@ -6191,7 +6282,7 @@
         <v>70</v>
       </c>
       <c r="ER27" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="ES27" s="2" t="s">
         <v>61</v>
@@ -6224,24 +6315,24 @@
         <v>70</v>
       </c>
       <c r="HR27" s="4" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3">
         <v>43881.540308020834</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>248</v>
+      <c r="B28" s="5" t="s">
+        <v>404</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="F28" s="2">
         <v>2010.0</v>
@@ -6253,7 +6344,7 @@
         <v>87</v>
       </c>
       <c r="AN28" s="2" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="AO28" s="2" t="s">
         <v>61</v>
@@ -6277,7 +6368,7 @@
         <v>101</v>
       </c>
       <c r="BC28" s="2" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="BD28" s="2" t="s">
         <v>61</v>
@@ -6289,7 +6380,7 @@
         <v>2010.0</v>
       </c>
       <c r="BO28" s="2" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="BP28" s="2" t="s">
         <v>61</v>
@@ -6313,7 +6404,7 @@
         <v>101</v>
       </c>
       <c r="CD28" s="2" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="CE28" s="2" t="s">
         <v>65</v>
@@ -6325,24 +6416,24 @@
         <v>2011.0</v>
       </c>
       <c r="HR28" s="4" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3">
         <v>43881.54601819444</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>248</v>
+      <c r="B29" s="5" t="s">
+        <v>413</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="F29" s="2">
         <v>1996.0</v>
@@ -6354,7 +6445,7 @@
         <v>62</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>61</v>
@@ -6375,21 +6466,21 @@
         <v>101</v>
       </c>
       <c r="AC29" s="2" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="AD29" s="2" t="s">
         <v>70</v>
       </c>
       <c r="HR29" s="4" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3">
         <v>43881.54692277778</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>411</v>
+      <c r="B30" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>235</v>
@@ -6398,7 +6489,7 @@
         <v>236</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="F30" s="2">
         <v>2014.0</v>
@@ -6407,7 +6498,7 @@
         <v>62</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>61</v>
@@ -6425,7 +6516,7 @@
         <v>16.3186</v>
       </c>
       <c r="AC30" s="2" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="AD30" s="2" t="s">
         <v>70</v>
@@ -6434,27 +6525,24 @@
         <v>2015.0</v>
       </c>
       <c r="HR30" s="4" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3">
         <v>43881.55358359954</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>248</v>
-      </c>
       <c r="C31" s="2" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="S31" s="2">
         <v>73.3652</v>
@@ -6463,24 +6551,21 @@
         <v>-79.0153</v>
       </c>
       <c r="HR31" s="4" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3">
         <v>43881.56061018519</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>248</v>
-      </c>
       <c r="C32" s="2" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="G32" s="2">
         <v>2013.0</v>
@@ -6492,7 +6577,7 @@
         <v>62</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>61</v>
@@ -6513,7 +6598,7 @@
         <v>101</v>
       </c>
       <c r="AC32" s="2" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="AD32" s="2" t="s">
         <v>70</v>
@@ -6522,24 +6607,24 @@
         <v>2013.0</v>
       </c>
       <c r="HR32" s="4" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3">
         <v>43881.56232457176</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>248</v>
+      <c r="B33" s="5" t="s">
+        <v>431</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="F33" s="2">
         <v>2016.0</v>
@@ -6551,7 +6636,7 @@
         <v>87</v>
       </c>
       <c r="AN33" s="2" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="AO33" s="2" t="s">
         <v>61</v>
@@ -6575,7 +6660,7 @@
         <v>101</v>
       </c>
       <c r="BC33" s="2" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="BD33" s="2" t="s">
         <v>61</v>
@@ -6587,7 +6672,7 @@
         <v>2016.0</v>
       </c>
       <c r="BO33" s="2" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="BP33" s="2" t="s">
         <v>61</v>
@@ -6611,7 +6696,7 @@
         <v>101</v>
       </c>
       <c r="CD33" s="2" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="CE33" s="2" t="s">
         <v>65</v>
@@ -6623,24 +6708,21 @@
         <v>2016.0</v>
       </c>
       <c r="HR33" s="4" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3">
         <v>43881.84268001157</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>248</v>
-      </c>
       <c r="C34" s="2" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="F34" s="2">
         <v>1976.0</v>
@@ -6649,7 +6731,7 @@
         <v>62</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>65</v>
@@ -6667,27 +6749,27 @@
         <v>-149.566667</v>
       </c>
       <c r="AC34" s="2" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="HR34" s="4" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3">
         <v>43881.56605809028</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>248</v>
+      <c r="B35" s="5" t="s">
+        <v>272</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="F35" s="2">
         <v>2012.0</v>
@@ -6699,7 +6781,7 @@
         <v>87</v>
       </c>
       <c r="AN35" s="2" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="AO35" s="2" t="s">
         <v>61</v>
@@ -6723,19 +6805,19 @@
         <v>101</v>
       </c>
       <c r="BC35" s="2" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="BD35" s="2" t="s">
         <v>61</v>
       </c>
       <c r="BE35" s="2" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="BG35" s="2">
         <v>2012.0</v>
       </c>
       <c r="BO35" s="2" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="BP35" s="2" t="s">
         <v>61</v>
@@ -6759,36 +6841,33 @@
         <v>101</v>
       </c>
       <c r="CD35" s="2" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="CE35" s="2" t="s">
         <v>65</v>
       </c>
       <c r="CF35" s="2" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="CH35" s="2">
         <v>2013.0</v>
       </c>
       <c r="HR35" s="4" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3">
         <v>43881.56729050926</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>248</v>
-      </c>
       <c r="C36" s="2" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="F36" s="2">
         <v>1989.0</v>
@@ -6797,7 +6876,7 @@
         <v>62</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>65</v>
@@ -6815,27 +6894,27 @@
         <v>-53.4334</v>
       </c>
       <c r="AC36" s="2" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="HR36" s="4" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3">
         <v>43881.57310625</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>248</v>
+      <c r="B37" s="5" t="s">
+        <v>457</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="F37" s="2">
         <v>2013.0</v>
@@ -6847,7 +6926,7 @@
         <v>87</v>
       </c>
       <c r="AN37" s="2" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="AO37" s="2" t="s">
         <v>65</v>
@@ -6868,7 +6947,7 @@
         <v>61</v>
       </c>
       <c r="BO37" s="2" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="BP37" s="2" t="s">
         <v>65</v>
@@ -6886,30 +6965,27 @@
         <v>2013.0</v>
       </c>
       <c r="HR37" s="4" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3">
         <v>43882.505364004624</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>248</v>
-      </c>
       <c r="C38" s="2" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="F38" s="2">
         <v>2001.0</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>61</v>
@@ -6918,7 +6994,7 @@
         <v>87</v>
       </c>
       <c r="AN38" s="2" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="AO38" s="2" t="s">
         <v>61</v>
@@ -6942,7 +7018,7 @@
         <v>70</v>
       </c>
       <c r="HR38" s="4" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
     </row>
     <row r="39">
@@ -6950,16 +7026,16 @@
         <v>43881.5824858912</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="F39" s="2">
         <v>2003.0</v>
@@ -6968,7 +7044,7 @@
         <v>62</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>61</v>
@@ -6986,10 +7062,10 @@
         <v>65</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="HR39" s="4" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
     </row>
     <row r="40">
@@ -6997,16 +7073,16 @@
         <v>43881.5824858912</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="F40" s="2">
         <v>2006.0</v>
@@ -7018,7 +7094,7 @@
         <v>62</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>61</v>
@@ -7033,7 +7109,7 @@
         <v>16.1</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="AN40" s="2"/>
       <c r="AO40" s="2"/>
@@ -7050,17 +7126,17 @@
       <c r="A41" s="3">
         <v>43881.58913173611</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>248</v>
+      <c r="B41" s="5" t="s">
+        <v>477</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="F41" s="2">
         <v>2014.0</v>
@@ -7069,7 +7145,7 @@
         <v>62</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>61</v>
@@ -7087,24 +7163,24 @@
         <v>70</v>
       </c>
       <c r="HR41" s="4" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3">
         <v>43881.59194611111</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>248</v>
+      <c r="B42" s="5" t="s">
+        <v>482</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="F42" s="2">
         <v>1999.0</v>
@@ -7116,7 +7192,7 @@
         <v>87</v>
       </c>
       <c r="AN42" s="2" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="AO42" s="2" t="s">
         <v>65</v>
@@ -7137,7 +7213,7 @@
         <v>61</v>
       </c>
       <c r="BO42" s="2" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="BP42" s="2" t="s">
         <v>65</v>
@@ -7158,7 +7234,7 @@
         <v>61</v>
       </c>
       <c r="CP42" s="2" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="CQ42" s="2" t="s">
         <v>65</v>
@@ -7179,30 +7255,30 @@
         <v>65</v>
       </c>
       <c r="HR42" s="4" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3">
         <v>43881.599092442135</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>248</v>
+      <c r="B43" s="5" t="s">
+        <v>490</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>87</v>
       </c>
       <c r="AN43" s="2" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="AO43" s="2" t="s">
         <v>65</v>
@@ -7220,7 +7296,7 @@
         <v>61</v>
       </c>
       <c r="BO43" s="2" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="BP43" s="2" t="s">
         <v>65</v>
@@ -7238,7 +7314,7 @@
         <v>61</v>
       </c>
       <c r="CP43" s="2" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="CQ43" s="2" t="s">
         <v>65</v>
@@ -7256,7 +7332,7 @@
         <v>61</v>
       </c>
       <c r="DQ43" s="2" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="DR43" s="2" t="s">
         <v>61</v>
@@ -7274,7 +7350,7 @@
         <v>61</v>
       </c>
       <c r="ER43" s="2" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="ES43" s="2" t="s">
         <v>65</v>
@@ -7292,7 +7368,7 @@
         <v>61</v>
       </c>
       <c r="FS43" s="2" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="FT43" s="2" t="s">
         <v>65</v>
@@ -7307,21 +7383,21 @@
         <v>-105.5895581</v>
       </c>
       <c r="HR43" s="4" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3">
         <v>43881.60582837963</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>248</v>
+      <c r="B44" s="5" t="s">
+        <v>500</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>86</v>
@@ -7336,7 +7412,7 @@
         <v>87</v>
       </c>
       <c r="AN44" s="2" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="AO44" s="2" t="s">
         <v>61</v>
@@ -7360,7 +7436,7 @@
         <v>70</v>
       </c>
       <c r="BO44" s="2" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="BP44" s="2" t="s">
         <v>61</v>
@@ -7387,7 +7463,7 @@
         <v>1993.0</v>
       </c>
       <c r="CP44" s="2" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="CQ44" s="2" t="s">
         <v>61</v>
@@ -7414,7 +7490,7 @@
         <v>1993.0</v>
       </c>
       <c r="DQ44" s="2" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="DR44" s="2" t="s">
         <v>61</v>
@@ -7441,7 +7517,7 @@
         <v>1993.0</v>
       </c>
       <c r="ER44" s="2" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="ES44" s="2" t="s">
         <v>65</v>
@@ -7462,30 +7538,30 @@
         <v>65</v>
       </c>
       <c r="HR44" s="4" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3">
         <v>43881.611928831015</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>248</v>
+      <c r="B45" s="5" t="s">
+        <v>413</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>87</v>
       </c>
       <c r="AN45" s="2" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="AO45" s="2" t="s">
         <v>61</v>
@@ -7512,7 +7588,7 @@
         <v>2002.0</v>
       </c>
       <c r="BO45" s="2" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="BP45" s="2" t="s">
         <v>61</v>
@@ -7539,7 +7615,7 @@
         <v>2002.0</v>
       </c>
       <c r="CP45" s="2" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="CQ45" s="2" t="s">
         <v>65</v>
@@ -7557,7 +7633,7 @@
         <v>61</v>
       </c>
       <c r="DQ45" s="2" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="DR45" s="2" t="s">
         <v>61</v>
@@ -7575,7 +7651,7 @@
         <v>61</v>
       </c>
       <c r="ER45" s="2" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="ES45" s="2" t="s">
         <v>61</v>
@@ -7602,7 +7678,7 @@
         <v>2002.0</v>
       </c>
       <c r="FS45" s="2" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="FT45" s="2" t="s">
         <v>65</v>
@@ -7617,21 +7693,21 @@
         <v>15.75835</v>
       </c>
       <c r="HR45" s="4" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3">
         <v>43881.617717395835</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>248</v>
+      <c r="B46" s="5" t="s">
+        <v>431</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>160</v>
@@ -7640,7 +7716,7 @@
         <v>87</v>
       </c>
       <c r="AN46" s="2" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="AO46" s="2" t="s">
         <v>61</v>
@@ -7661,7 +7737,7 @@
         <v>61</v>
       </c>
       <c r="BE46" s="2" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="BF46" s="2">
         <v>1994.0</v>
@@ -7670,7 +7746,7 @@
         <v>1994.0</v>
       </c>
       <c r="BO46" s="2" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="BP46" s="2" t="s">
         <v>61</v>
@@ -7691,7 +7767,7 @@
         <v>61</v>
       </c>
       <c r="CF46" s="2" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="CG46" s="2">
         <v>1994.0</v>
@@ -7700,7 +7776,7 @@
         <v>1994.0</v>
       </c>
       <c r="CP46" s="2" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="CQ46" s="2" t="s">
         <v>61</v>
@@ -7715,24 +7791,24 @@
         <v>70</v>
       </c>
       <c r="HR46" s="4" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3">
         <v>43881.626244837964</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>248</v>
+      <c r="B47" s="5" t="s">
+        <v>521</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="F47" s="2">
         <v>2003.0</v>
@@ -7741,7 +7817,7 @@
         <v>87</v>
       </c>
       <c r="AN47" s="2" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="AO47" s="2" t="s">
         <v>61</v>
@@ -7768,7 +7844,7 @@
         <v>2003.0</v>
       </c>
       <c r="BO47" s="2" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="BP47" s="2" t="s">
         <v>61</v>
@@ -7795,7 +7871,7 @@
         <v>2003.0</v>
       </c>
       <c r="CP47" s="2" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="CQ47" s="2" t="s">
         <v>61</v>
@@ -7822,30 +7898,30 @@
         <v>2003.0</v>
       </c>
       <c r="HR47" s="4" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3">
         <v>43881.70264310185</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>248</v>
+      <c r="B48" s="5" t="s">
+        <v>356</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>87</v>
       </c>
       <c r="AN48" s="2" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="AO48" s="2" t="s">
         <v>61</v>
@@ -7860,7 +7936,7 @@
         <v>89</v>
       </c>
       <c r="AW48" s="2" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="AY48" s="2" t="s">
         <v>67</v>
@@ -7875,7 +7951,7 @@
         <v>70</v>
       </c>
       <c r="BO48" s="2" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="BP48" s="2" t="s">
         <v>65</v>
@@ -7890,7 +7966,7 @@
         <v>61</v>
       </c>
       <c r="CP48" s="2" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="CQ48" s="2" t="s">
         <v>65</v>
@@ -7905,7 +7981,7 @@
         <v>61</v>
       </c>
       <c r="DQ48" s="2" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="DR48" s="2" t="s">
         <v>61</v>
@@ -7917,7 +7993,7 @@
         <v>-85.0</v>
       </c>
       <c r="HR48" s="4" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
     </row>
     <row r="49">
@@ -7925,16 +8001,16 @@
         <v>43973.17502253472</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="F49" s="2">
         <v>2018.0</v>
@@ -7943,10 +8019,10 @@
         <v>2017.0</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>61</v>
@@ -7955,7 +8031,7 @@
         <v>62</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>61</v>
@@ -7979,16 +8055,16 @@
         <v>239</v>
       </c>
       <c r="X49" s="2" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="Y49" s="2" t="s">
         <v>67</v>
       </c>
       <c r="Z49" s="2" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="AC49" s="2" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="AD49" s="2" t="s">
         <v>70</v>
@@ -7997,10 +8073,10 @@
         <v>2018.0</v>
       </c>
       <c r="GS49" s="2" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="HR49" s="4" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
     </row>
     <row r="50">
@@ -8008,16 +8084,16 @@
         <v>44067.26924804398</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="F50" s="2">
         <v>1990.0</v>
@@ -8026,7 +8102,7 @@
         <v>1990.0</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>65</v>
@@ -8035,10 +8111,10 @@
         <v>1994.0</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>65</v>
@@ -8053,34 +8129,34 @@
         <v>-79.7</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="W50" s="2" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="X50" s="2" t="s">
         <v>241</v>
       </c>
       <c r="Y50" s="2" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="Z50" s="2" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="AB50" s="2" t="s">
         <v>92</v>
       </c>
       <c r="AC50" s="2" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="GS50" s="2" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="HR50" s="4" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
     </row>
     <row r="51" ht="19.5" customHeight="1">
@@ -8088,16 +8164,16 @@
         <v>44621.604812997684</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="F51" s="2">
         <v>2016.0</v>
@@ -8106,7 +8182,7 @@
         <v>2017.0</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>61</v>
@@ -8115,7 +8191,7 @@
         <v>62</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>61</v>
@@ -8139,22 +8215,22 @@
         <v>65</v>
       </c>
       <c r="X51" s="2" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="Y51" s="2" t="s">
         <v>67</v>
       </c>
       <c r="Z51" s="2" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="AA51" s="2" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="AC51" s="2" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="AD51" s="2" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="AE51" s="2">
         <v>2017.0</v>
@@ -8168,16 +8244,16 @@
         <v>44621.60230436343</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="F52" s="2">
         <v>2017.0</v>
@@ -8186,7 +8262,7 @@
         <v>2017.0</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>61</v>
@@ -8195,7 +8271,7 @@
         <v>87</v>
       </c>
       <c r="AN52" s="2" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="AO52" s="2" t="s">
         <v>61</v>
@@ -8222,22 +8298,22 @@
         <v>65</v>
       </c>
       <c r="AW52" s="2" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="AX52" s="2" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="AY52" s="2" t="s">
         <v>67</v>
       </c>
       <c r="AZ52" s="2" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="BA52" s="2" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="BC52" s="2" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="BD52" s="2" t="s">
         <v>61</v>
@@ -8249,7 +8325,7 @@
         <v>2019.0</v>
       </c>
       <c r="BO52" s="2" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="BP52" s="2" t="s">
         <v>61</v>
@@ -8273,25 +8349,25 @@
         <v>63</v>
       </c>
       <c r="BW52" s="2" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
       <c r="BX52" s="2" t="s">
         <v>65</v>
       </c>
       <c r="BY52" s="2" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="BZ52" s="2" t="s">
         <v>67</v>
       </c>
       <c r="CA52" s="2" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="CB52" s="2" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="CD52" s="2" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="CE52" s="2" t="s">
         <v>61</v>
@@ -8303,7 +8379,7 @@
         <v>2017.0</v>
       </c>
       <c r="CP52" s="2" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="CQ52" s="2" t="s">
         <v>61</v>
@@ -8333,19 +8409,19 @@
         <v>65</v>
       </c>
       <c r="CZ52" s="2" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="DA52" s="2" t="s">
         <v>67</v>
       </c>
       <c r="DB52" s="2" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="DC52" s="2" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="DE52" s="2" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="DF52" s="2" t="s">
         <v>61</v>
@@ -8357,7 +8433,7 @@
         <v>2017.0</v>
       </c>
       <c r="DQ52" s="2" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
       <c r="DR52" s="2" t="s">
         <v>61</v>
@@ -8387,19 +8463,19 @@
         <v>65</v>
       </c>
       <c r="EA52" s="2" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="EB52" s="2" t="s">
         <v>67</v>
       </c>
       <c r="EC52" s="2" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="ED52" s="2" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="EF52" s="2" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="EG52" s="2" t="s">
         <v>65</v>
@@ -8416,16 +8492,16 @@
         <v>45005.080744328705</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>573</v>
+        <v>404</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="F53" s="2">
         <v>2011.0</v>
@@ -8434,16 +8510,16 @@
         <v>2011.0</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>61</v>
@@ -8467,22 +8543,22 @@
         <v>143</v>
       </c>
       <c r="W53" s="2" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="X53" s="2" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="Y53" s="2" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="Z53" s="2" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="AC53" s="2" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="AD53" s="2" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="AE53" s="2">
         <v>2011.0</v>
@@ -8491,7 +8567,7 @@
         <v>2011.0</v>
       </c>
       <c r="GS53" s="2" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
     </row>
     <row r="54">
@@ -8499,16 +8575,16 @@
         <v>45002.085014641205</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>573</v>
+        <v>404</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="F54" s="2">
         <v>2014.0</v>
@@ -8517,7 +8593,7 @@
         <v>2014.0</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>61</v>
@@ -8526,7 +8602,7 @@
         <v>62</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>61</v>
@@ -8550,25 +8626,25 @@
         <v>191</v>
       </c>
       <c r="W54" s="2" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="X54" s="2" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="Y54" s="2" t="s">
         <v>67</v>
       </c>
       <c r="Z54" s="2" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="AA54" s="2" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="AC54" s="2" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="AD54" s="2" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="AE54" s="2">
         <v>2016.0</v>
@@ -8580,7 +8656,7 @@
         <v>2015.0</v>
       </c>
       <c r="GS54" s="2" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
     </row>
     <row r="55">
@@ -8588,31 +8664,31 @@
         <v>45002.09488684028</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>573</v>
+        <v>404</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="G55" s="2">
         <v>2010.0</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>61</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>61</v>
@@ -8636,19 +8712,19 @@
         <v>65</v>
       </c>
       <c r="X55" s="2" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="Y55" s="2" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="Z55" s="2" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="AC55" s="2" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="AD55" s="2" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="AE55" s="2">
         <v>2010.0</v>
@@ -8657,24 +8733,24 @@
         <v>2010.0</v>
       </c>
       <c r="GS55" s="2" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3">
         <v>45887.31285967593</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>604</v>
+      <c r="B56" s="6" t="s">
+        <v>617</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="F56" s="2">
         <v>2000.0</v>
@@ -8683,10 +8759,10 @@
         <v>2022.0</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>61</v>
@@ -8695,7 +8771,7 @@
         <v>87</v>
       </c>
       <c r="AN56" s="2" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="AO56" s="2" t="s">
         <v>61</v>
@@ -8710,7 +8786,7 @@
         <v>58.736764</v>
       </c>
       <c r="AS56" s="2">
-        <v>93.820134</v>
+        <v>-93.820134</v>
       </c>
       <c r="AT56" s="2">
         <v>2007.0</v>
@@ -8719,7 +8795,7 @@
         <v>101</v>
       </c>
       <c r="AV56" s="2" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="AW56" s="2" t="s">
         <v>65</v>
@@ -8728,16 +8804,16 @@
         <v>65</v>
       </c>
       <c r="AY56" s="2" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="AZ56" s="2" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="BB56" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BC56" s="2" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="BD56" s="2" t="s">
         <v>61</v>
@@ -8749,7 +8825,7 @@
         <v>2007.0</v>
       </c>
       <c r="BO56" s="2" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="BP56" s="2" t="s">
         <v>61</v>
@@ -8764,7 +8840,7 @@
         <v>59.733285</v>
       </c>
       <c r="BT56" s="2">
-        <v>93.800319</v>
+        <v>-93.800319</v>
       </c>
       <c r="BU56" s="2">
         <v>2007.0</v>
@@ -8773,7 +8849,7 @@
         <v>101</v>
       </c>
       <c r="BW56" s="2" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="BX56" s="2" t="s">
         <v>65</v>
@@ -8782,16 +8858,16 @@
         <v>145</v>
       </c>
       <c r="BZ56" s="2" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="CA56" s="2" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="CC56" s="2" t="s">
         <v>92</v>
       </c>
       <c r="CD56" s="2" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="CE56" s="2" t="s">
         <v>61</v>
@@ -8803,7 +8879,7 @@
         <v>2007.0</v>
       </c>
       <c r="CP56" s="2" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="CQ56" s="2" t="s">
         <v>65</v>
@@ -8818,7 +8894,7 @@
         <v>58.75052</v>
       </c>
       <c r="CU56" s="2">
-        <v>93.859494</v>
+        <v>-93.859494</v>
       </c>
       <c r="CV56" s="2">
         <v>2011.0</v>
@@ -8836,22 +8912,22 @@
         <v>65</v>
       </c>
       <c r="DA56" s="2" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="DB56" s="2" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="DD56" s="2" t="s">
         <v>92</v>
       </c>
       <c r="DE56" s="2" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="DF56" s="2" t="s">
         <v>65</v>
       </c>
       <c r="GS56" s="2" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
     </row>
     <row r="57">
@@ -8859,16 +8935,16 @@
         <v>46031.10178510417</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>604</v>
+        <v>634</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="F57" s="2">
         <v>2008.0</v>
@@ -8877,10 +8953,10 @@
         <v>2021.0</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>61</v>
@@ -8889,7 +8965,7 @@
         <v>62</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
       <c r="P57" s="2" t="s">
         <v>61</v>
@@ -8913,31 +8989,123 @@
         <v>227</v>
       </c>
       <c r="W57" s="2" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="X57" s="2" t="s">
-        <v>628</v>
+        <v>642</v>
       </c>
       <c r="Y57" s="2" t="s">
-        <v>629</v>
+        <v>643</v>
       </c>
       <c r="Z57" s="2" t="s">
-        <v>630</v>
+        <v>644</v>
       </c>
       <c r="AA57" s="2" t="s">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="AB57" s="2" t="s">
         <v>92</v>
       </c>
       <c r="AC57" s="2" t="s">
-        <v>632</v>
+        <v>646</v>
       </c>
       <c r="AD57" s="2" t="s">
         <v>70</v>
       </c>
       <c r="AE57" s="2">
         <v>2021.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3">
+        <v>46034.62813409722</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="F58" s="2">
+        <v>2022.0</v>
+      </c>
+      <c r="G58" s="2">
+        <v>2023.0</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN58" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="AO58" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP58" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="AQ58" s="2">
+        <v>1470.0</v>
+      </c>
+      <c r="AR58" s="2">
+        <v>49.927275</v>
+      </c>
+      <c r="AS58" s="2">
+        <v>-122.992919</v>
+      </c>
+      <c r="AT58" s="2">
+        <v>2022.0</v>
+      </c>
+      <c r="AU58" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV58" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW58" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="AX58" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="AY58" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ58" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="BA58" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="BB58" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC58" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="BD58" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BE58" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF58" s="2">
+        <v>2022.0</v>
       </c>
     </row>
   </sheetData>
@@ -9000,8 +9168,9 @@
     <hyperlink r:id="rId57" ref="HR50"/>
     <hyperlink r:id="rId58" ref="H56"/>
     <hyperlink r:id="rId59" ref="H57"/>
+    <hyperlink r:id="rId60" ref="H58"/>
   </hyperlinks>
-  <drawing r:id="rId60"/>
-  <legacyDrawing r:id="rId61"/>
+  <drawing r:id="rId61"/>
+  <legacyDrawing r:id="rId62"/>
 </worksheet>
 </file>